--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C55898-878A-440F-B417-51ABAB8F8775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46815144-0519-4AFE-A6EC-B27F4D8F8454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2910" yWindow="1185" windowWidth="11362" windowHeight="14153" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Assumptions</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Guess</t>
+  </si>
+  <si>
+    <t>Proportion of MBS enemies</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,6 +902,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0.11246400000000001</v>

--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46815144-0519-4AFE-A6EC-B27F4D8F8454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED821357-55B6-41D9-8843-C57F88BE03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
+    <workbookView minimized="1" xWindow="1103" yWindow="210" windowWidth="11362" windowHeight="14152" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Assumptions</t>
   </si>
@@ -135,6 +135,30 @@
   </si>
   <si>
     <t>Proportion of MBS enemies</t>
+  </si>
+  <si>
+    <t>Whole Rotation Revival Support Score</t>
+  </si>
+  <si>
+    <t>Single Unit Revival Support Score</t>
+  </si>
+  <si>
+    <t>Ghost Usher Support Score</t>
+  </si>
+  <si>
+    <t>Active Skill AOE SBR Score</t>
+  </si>
+  <si>
+    <t>Average number of same type ki spheres (Double to type) (Not tested)</t>
+  </si>
+  <si>
+    <t>Average number of rainbow ki spheres (Double to type) (Not tested)</t>
+  </si>
+  <si>
+    <t>Average Charge Counter per Turn (No Orb changers)</t>
+  </si>
+  <si>
+    <t>Average Charge Counter per Turn (Rainbow Orb Changer)</t>
   </si>
 </sst>
 </file>
@@ -191,7 +215,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="NoOrbChaning"/>
@@ -221,13 +245,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="E3">
-            <v>1.5</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -522,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,7 +551,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -918,6 +936,12 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0.11665599999999998</v>
@@ -927,6 +951,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <f>0.75</f>
+        <v>0.75</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0.12083199999999997</v>
@@ -936,6 +967,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0.12499999999999999</v>
@@ -945,6 +982,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <f>0.5</f>
+        <v>0.5</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0.12916800000000001</v>
@@ -954,6 +998,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <f>B14+3/4*B14/B6</f>
+        <v>6.375</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0.13334399999999999</v>
@@ -963,6 +1014,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0.13753599999999999</v>
@@ -972,6 +1029,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f>3*(B6+B7)</f>
+        <v>13.5</v>
+      </c>
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0.14175199999999996</v>
@@ -981,6 +1045,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <f>3*(B8+B9)</f>
+        <v>20.399999999999999</v>
+      </c>
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0.14599999999999999</v>

--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED821357-55B6-41D9-8843-C57F88BE03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D4AA9-E127-4F97-91A9-7F459C20B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1103" yWindow="210" windowWidth="11362" windowHeight="14152" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Assumptions</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>Average Charge Counter per Turn (Rainbow Orb Changer)</t>
+  </si>
+  <si>
+    <t>Proportion of Goku (contains) Enemy</t>
+  </si>
+  <si>
+    <t>Proportion of Extreme class enemies that are movie bosses</t>
+  </si>
+  <si>
+    <t>Proportion of Universe Survival Saga Enemies</t>
+  </si>
+  <si>
+    <t>Proportion of Pure Saiyan Enemies</t>
+  </si>
+  <si>
+    <t>Proportion of Majin Buu Saga Enemies</t>
+  </si>
+  <si>
+    <t>Proportion of Fused Fighter Enemies</t>
   </si>
 </sst>
 </file>
@@ -540,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D2794A-FB54-4470-B8D2-C9DC8DCEEBF3}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -924,8 +942,8 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <f>0.1</f>
-        <v>0.1</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -1061,6 +1079,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <f>B17*B18/3</f>
+        <v>0.14166666666666666</v>
+      </c>
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0.15028799999999998</v>
@@ -1069,7 +1094,14 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0.15462399999999998</v>
@@ -1078,7 +1110,14 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <f>B20*(1-B17)+B17*B18*0.75</f>
+        <v>0.34375</v>
+      </c>
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0.15901599999999999</v>
@@ -1087,7 +1126,14 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0.16347200000000001</v>
@@ -1096,7 +1142,14 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
       <c r="D36">
         <f t="shared" si="0"/>
         <v>0.16799999999999998</v>
@@ -1105,7 +1158,14 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
       <c r="D37">
         <f t="shared" si="0"/>
         <v>0.17260799999999998</v>
@@ -1114,7 +1174,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0.17730399999999996</v>
@@ -1123,7 +1183,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0.18209599999999998</v>
@@ -1132,7 +1192,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>0.18699199999999999</v>
@@ -1141,7 +1201,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>0.19199999999999998</v>
@@ -1150,7 +1210,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>0.19712799999999997</v>
@@ -1159,7 +1219,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>0.20238399999999998</v>
@@ -1168,7 +1228,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>0.20777599999999996</v>
@@ -1177,7 +1237,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>0.213312</v>
@@ -1186,7 +1246,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>0.21899999999999997</v>
@@ -1195,7 +1255,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>0.22484799999999996</v>
@@ -1204,7 +1264,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>0.23086399999999996</v>

--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5D4AA9-E127-4F97-91A9-7F459C20B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5876184-379C-4536-A706-A2D5C4A2FAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Assumptions</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Proportion of Fused Fighter Enemies</t>
+  </si>
+  <si>
+    <t>Proportion of Realm of Gods Enemies</t>
   </si>
 </sst>
 </file>
@@ -568,13 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D2794A-FB54-4470-B8D2-C9DC8DCEEBF3}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.265625" customWidth="1"/>
+    <col min="1" max="1" width="55.86328125" customWidth="1"/>
     <col min="3" max="3" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,6 +779,10 @@
       <c r="E12">
         <v>0.11</v>
       </c>
+      <c r="G12">
+        <f>B38*(B8+B9)+(1-B38)*(B6+B7)</f>
+        <v>4.6149999999999993</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1175,6 +1182,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0.17730399999999996</v>

--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5876184-379C-4536-A706-A2D5C4A2FAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0303D1-FE94-4663-BE05-BCD372077C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Assumptions</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Proportion of Realm of Gods Enemies</t>
+  </si>
+  <si>
+    <t>Final Blow Chance per turn</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D2794A-FB54-4470-B8D2-C9DC8DCEEBF3}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1198,6 +1201,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <f>1/3/2</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0.18209599999999998</v>

--- a/Modelling Assumptions.xlsx
+++ b/Modelling Assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0303D1-FE94-4663-BE05-BCD372077C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89396FEB-36E9-4343-AD88-5D44F7126F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{E25DF9D1-20AB-4A51-A180-B8B0280A2DA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="NoOrbChaning"/>
       <sheetName val="RainbowOrbChanging"/>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D2794A-FB54-4470-B8D2-C9DC8DCEEBF3}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
